--- a/ConvertedEqual/Pennsylvania_Converted.xlsx
+++ b/ConvertedEqual/Pennsylvania_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="286">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -837,6 +837,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK221"/>
+  <dimension ref="A1:AK233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>1</v>
@@ -1737,7 +1773,7 @@
         <v>0.3333333333</v>
       </c>
       <c r="AK7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -3550,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="AK24">
-        <v>0.07692307691538461</v>
+        <v>0.08333333332499999</v>
       </c>
     </row>
     <row r="25" spans="1:37">
@@ -3663,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>0.1965811965692308</v>
+        <v>0.21296296295</v>
       </c>
     </row>
     <row r="26" spans="1:37">
@@ -3776,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="AK26">
-        <v>0.1965811965692308</v>
+        <v>0.21296296295</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -3889,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="AK27">
-        <v>0.4871794871538461</v>
+        <v>0.5277777777499999</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -4002,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="AK28">
-        <v>0.4871794871538461</v>
+        <v>0.5277777777499999</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -4115,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AK29">
-        <v>0.4871794871538461</v>
+        <v>0.5277777777499999</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -4228,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="AK30">
-        <v>0.4871794871538461</v>
+        <v>0.5277777777499999</v>
       </c>
     </row>
     <row r="31" spans="1:37">
@@ -4341,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="AK31">
-        <v>0.5299145298846152</v>
+        <v>0.5740740740416664</v>
       </c>
     </row>
     <row r="32" spans="1:37">
@@ -4454,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="AK32">
-        <v>0.5299145298846152</v>
+        <v>0.5740740740416664</v>
       </c>
     </row>
     <row r="33" spans="1:37">
@@ -4567,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="AK33">
-        <v>0.5299145298846152</v>
+        <v>0.5740740740416664</v>
       </c>
     </row>
     <row r="34" spans="1:37">
@@ -4680,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="AK34">
-        <v>0.5299145298846152</v>
+        <v>0.5740740740416664</v>
       </c>
     </row>
     <row r="35" spans="1:37">
@@ -4793,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="AK35">
-        <v>0.5299145298846152</v>
+        <v>0.5740740740416664</v>
       </c>
     </row>
     <row r="36" spans="1:37">
@@ -4906,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="AK36">
-        <v>0.5299145298846152</v>
+        <v>0.5740740740416664</v>
       </c>
     </row>
     <row r="37" spans="1:37">
@@ -5019,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="AK37">
-        <v>0.5299145298846152</v>
+        <v>0.5740740740416664</v>
       </c>
     </row>
     <row r="38" spans="1:37">
@@ -5132,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="AK38">
-        <v>0.5299145298846152</v>
+        <v>0.5740740740416664</v>
       </c>
     </row>
     <row r="39" spans="1:37">
@@ -5245,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="AK39">
-        <v>0.5299145298846152</v>
+        <v>0.5740740740416664</v>
       </c>
     </row>
     <row r="40" spans="1:37">
@@ -5358,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="AK40">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="41" spans="1:37">
@@ -5471,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="AK41">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="42" spans="1:37">
@@ -5584,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="AK42">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="43" spans="1:37">
@@ -5697,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="AK43">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="44" spans="1:37">
@@ -5810,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="AK44">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="45" spans="1:37">
@@ -5923,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="AK45">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="46" spans="1:37">
@@ -6036,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="AK46">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="47" spans="1:37">
@@ -6149,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="AK47">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="48" spans="1:37">
@@ -6262,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="AK48">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="49" spans="1:37">
@@ -6375,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="AK49">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="50" spans="1:37">
@@ -6488,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="AK50">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="51" spans="1:37">
@@ -6601,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="AK51">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="52" spans="1:37">
@@ -6714,7 +6750,7 @@
         <v>1</v>
       </c>
       <c r="AK52">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="53" spans="1:37">
@@ -6827,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="AK53">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="54" spans="1:37">
@@ -6940,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="AK54">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="55" spans="1:37">
@@ -7053,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="AK55">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="56" spans="1:37">
@@ -7166,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="AK56">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="57" spans="1:37">
@@ -7279,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="AK57">
-        <v>0.8461538461230769</v>
+        <v>0.8333333333</v>
       </c>
     </row>
     <row r="58" spans="1:37">
@@ -7392,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="AK58">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="59" spans="1:37">
@@ -7505,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="AK59">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="60" spans="1:37">
@@ -7618,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="AK60">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="61" spans="1:37">
@@ -7731,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="AK61">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="62" spans="1:37">
@@ -7844,7 +7880,7 @@
         <v>1</v>
       </c>
       <c r="AK62">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="63" spans="1:37">
@@ -7957,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="AK63">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="64" spans="1:37">
@@ -8070,7 +8106,7 @@
         <v>1</v>
       </c>
       <c r="AK64">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="65" spans="1:37">
@@ -8183,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="AK65">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="66" spans="1:37">
@@ -8296,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="AK66">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="67" spans="1:37">
@@ -8409,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="AK67">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="68" spans="1:37">
@@ -8522,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="AK68">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="69" spans="1:37">
@@ -8635,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="AK69">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="70" spans="1:37">
@@ -8748,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="AK70">
-        <v>0.9230769230461539</v>
+        <v>0.9166666666333333</v>
       </c>
     </row>
     <row r="71" spans="1:37">
@@ -8861,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="AK71">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="72" spans="1:37">
@@ -8974,7 +9010,7 @@
         <v>1</v>
       </c>
       <c r="AK72">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="73" spans="1:37">
@@ -9087,7 +9123,7 @@
         <v>1</v>
       </c>
       <c r="AK73">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="74" spans="1:37">
@@ -9200,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="AK74">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="75" spans="1:37">
@@ -9313,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="AK75">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="76" spans="1:37">
@@ -9426,7 +9462,7 @@
         <v>1</v>
       </c>
       <c r="AK76">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="77" spans="1:37">
@@ -9539,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="AK77">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="78" spans="1:37">
@@ -9652,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="AK78">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="79" spans="1:37">
@@ -9765,7 +9801,7 @@
         <v>1</v>
       </c>
       <c r="AK79">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="80" spans="1:37">
@@ -9878,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="AK80">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="81" spans="1:37">
@@ -9991,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="AK81">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="82" spans="1:37">
@@ -10104,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="AK82">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="83" spans="1:37">
@@ -10217,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="AK83">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="84" spans="1:37">
@@ -10330,7 +10366,7 @@
         <v>1</v>
       </c>
       <c r="AK84">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="85" spans="1:37">
@@ -10443,7 +10479,7 @@
         <v>1</v>
       </c>
       <c r="AK85">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="86" spans="1:37">
@@ -10556,7 +10592,7 @@
         <v>1</v>
       </c>
       <c r="AK86">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="87" spans="1:37">
@@ -10669,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="AK87">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="88" spans="1:37">
@@ -10782,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="AK88">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="89" spans="1:37">
@@ -10895,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="AK89">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="90" spans="1:37">
@@ -11008,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="AK90">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="91" spans="1:37">
@@ -11121,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="AK91">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="92" spans="1:37">
@@ -11234,7 +11270,7 @@
         <v>1</v>
       </c>
       <c r="AK92">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="93" spans="1:37">
@@ -11347,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="AK93">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="94" spans="1:37">
@@ -11460,7 +11496,7 @@
         <v>1</v>
       </c>
       <c r="AK94">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="95" spans="1:37">
@@ -11573,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="AK95">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="96" spans="1:37">
@@ -11686,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="AK96">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="97" spans="1:37">
@@ -11799,7 +11835,7 @@
         <v>1</v>
       </c>
       <c r="AK97">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="98" spans="1:37">
@@ -11912,7 +11948,7 @@
         <v>1</v>
       </c>
       <c r="AK98">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="99" spans="1:37">
@@ -12025,7 +12061,7 @@
         <v>1</v>
       </c>
       <c r="AK99">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="100" spans="1:37">
@@ -12138,7 +12174,7 @@
         <v>1</v>
       </c>
       <c r="AK100">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="101" spans="1:37">
@@ -12251,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="AK101">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="102" spans="1:37">
@@ -12364,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="AK102">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="103" spans="1:37">
@@ -12477,7 +12513,7 @@
         <v>1</v>
       </c>
       <c r="AK103">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="104" spans="1:37">
@@ -12590,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="AK104">
-        <v>0.8803418803153847</v>
+        <v>0.8703703703416669</v>
       </c>
     </row>
     <row r="105" spans="1:37">
@@ -12703,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="AK105">
-        <v>0.8034188033923079</v>
+        <v>0.7870370370083335</v>
       </c>
     </row>
     <row r="106" spans="1:37">
@@ -12816,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="AK106">
-        <v>0.7521367521153847</v>
+        <v>0.7314814814583334</v>
       </c>
     </row>
     <row r="107" spans="1:37">
@@ -12929,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="AK107">
-        <v>0.743589743569231</v>
+        <v>0.7222222222000001</v>
       </c>
     </row>
     <row r="108" spans="1:37">
@@ -13042,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="AK108">
-        <v>0.743589743569231</v>
+        <v>0.7222222222000001</v>
       </c>
     </row>
     <row r="109" spans="1:37">
@@ -13155,7 +13191,7 @@
         <v>1</v>
       </c>
       <c r="AK109">
-        <v>0.743589743569231</v>
+        <v>0.7222222222000001</v>
       </c>
     </row>
     <row r="110" spans="1:37">
@@ -13268,7 +13304,7 @@
         <v>1</v>
       </c>
       <c r="AK110">
-        <v>0.743589743569231</v>
+        <v>0.7222222222000001</v>
       </c>
     </row>
     <row r="111" spans="1:37">
@@ -13381,7 +13417,7 @@
         <v>1</v>
       </c>
       <c r="AK111">
-        <v>0.743589743569231</v>
+        <v>0.7222222222000001</v>
       </c>
     </row>
     <row r="112" spans="1:37">
@@ -13494,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="AK112">
-        <v>0.743589743569231</v>
+        <v>0.7222222222000001</v>
       </c>
     </row>
     <row r="113" spans="1:37">
@@ -13607,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="AK113">
-        <v>0.6175213675076924</v>
+        <v>0.5856481481333333</v>
       </c>
     </row>
     <row r="114" spans="1:37">
@@ -13720,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="AK114">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="115" spans="1:37">
@@ -13833,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="AK115">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="116" spans="1:37">
@@ -13946,7 +13982,7 @@
         <v>1</v>
       </c>
       <c r="AK116">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="117" spans="1:37">
@@ -14059,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AK117">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="118" spans="1:37">
@@ -14172,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="AK118">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="119" spans="1:37">
@@ -14285,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="AK119">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="120" spans="1:37">
@@ -14398,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="AK120">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="121" spans="1:37">
@@ -14511,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="AK121">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="122" spans="1:37">
@@ -14624,7 +14660,7 @@
         <v>1</v>
       </c>
       <c r="AK122">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="123" spans="1:37">
@@ -14737,7 +14773,7 @@
         <v>1</v>
       </c>
       <c r="AK123">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="124" spans="1:37">
@@ -14850,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="AK124">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="125" spans="1:37">
@@ -14963,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="AK125">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="126" spans="1:37">
@@ -15076,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="AK126">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="127" spans="1:37">
@@ -15189,7 +15225,7 @@
         <v>1</v>
       </c>
       <c r="AK127">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="128" spans="1:37">
@@ -15302,7 +15338,7 @@
         <v>1</v>
       </c>
       <c r="AK128">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="129" spans="1:37">
@@ -15415,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="AK129">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="130" spans="1:37">
@@ -15528,7 +15564,7 @@
         <v>1</v>
       </c>
       <c r="AK130">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="131" spans="1:37">
@@ -15641,7 +15677,7 @@
         <v>1</v>
       </c>
       <c r="AK131">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="132" spans="1:37">
@@ -15754,7 +15790,7 @@
         <v>1</v>
       </c>
       <c r="AK132">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="133" spans="1:37">
@@ -15867,7 +15903,7 @@
         <v>1</v>
       </c>
       <c r="AK133">
-        <v>0.6089743589615384</v>
+        <v>0.5763888888749999</v>
       </c>
     </row>
     <row r="134" spans="1:37">
@@ -15980,7 +16016,7 @@
         <v>0</v>
       </c>
       <c r="AK134">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:37">
@@ -16093,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="AK135">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="136" spans="1:37">
@@ -16206,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="AK136">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:37">
@@ -16319,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="AK137">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:37">
@@ -16432,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="AK138">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:37">
@@ -16545,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="AK139">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="140" spans="1:37">
@@ -16658,7 +16694,7 @@
         <v>0</v>
       </c>
       <c r="AK140">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="141" spans="1:37">
@@ -16771,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="AK141">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:37">
@@ -16884,7 +16920,7 @@
         <v>0</v>
       </c>
       <c r="AK142">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:37">
@@ -16997,7 +17033,7 @@
         <v>0</v>
       </c>
       <c r="AK143">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:37">
@@ -17110,7 +17146,7 @@
         <v>0</v>
       </c>
       <c r="AK144">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="145" spans="1:37">
@@ -17223,7 +17259,7 @@
         <v>0</v>
       </c>
       <c r="AK145">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="146" spans="1:37">
@@ -17336,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="AK146">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:37">
@@ -17449,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="AK147">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:37">
@@ -17562,7 +17598,7 @@
         <v>0</v>
       </c>
       <c r="AK148">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:37">
@@ -17675,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="AK149">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:37">
@@ -17788,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="AK150">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="151" spans="1:37">
@@ -17901,7 +17937,7 @@
         <v>0</v>
       </c>
       <c r="AK151">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:37">
@@ -18014,7 +18050,7 @@
         <v>0</v>
       </c>
       <c r="AK152">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:37">
@@ -18127,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="AK153">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:37">
@@ -18240,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="AK154">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:37">
@@ -18353,7 +18389,7 @@
         <v>0</v>
       </c>
       <c r="AK155">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:37">
@@ -18466,7 +18502,7 @@
         <v>0</v>
       </c>
       <c r="AK156">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:37">
@@ -18579,7 +18615,7 @@
         <v>0</v>
       </c>
       <c r="AK157">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="158" spans="1:37">
@@ -18692,7 +18728,7 @@
         <v>0</v>
       </c>
       <c r="AK158">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:37">
@@ -18805,7 +18841,7 @@
         <v>0</v>
       </c>
       <c r="AK159">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:37">
@@ -18918,7 +18954,7 @@
         <v>0</v>
       </c>
       <c r="AK160">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="161" spans="1:37">
@@ -19031,7 +19067,7 @@
         <v>0</v>
       </c>
       <c r="AK161">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="162" spans="1:37">
@@ -19144,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="AK162">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:37">
@@ -19257,7 +19293,7 @@
         <v>0</v>
       </c>
       <c r="AK163">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:37">
@@ -19370,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="AK164">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:37">
@@ -19483,7 +19519,7 @@
         <v>0</v>
       </c>
       <c r="AK165">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:37">
@@ -19596,7 +19632,7 @@
         <v>0</v>
       </c>
       <c r="AK166">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:37">
@@ -19709,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="AK167">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:37">
@@ -19822,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="AK168">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:37">
@@ -19935,7 +19971,7 @@
         <v>0</v>
       </c>
       <c r="AK169">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:37">
@@ -20048,7 +20084,7 @@
         <v>0</v>
       </c>
       <c r="AK170">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:37">
@@ -20161,7 +20197,7 @@
         <v>0</v>
       </c>
       <c r="AK171">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:37">
@@ -20274,7 +20310,7 @@
         <v>0</v>
       </c>
       <c r="AK172">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:37">
@@ -20387,7 +20423,7 @@
         <v>0</v>
       </c>
       <c r="AK173">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:37">
@@ -20500,7 +20536,7 @@
         <v>0</v>
       </c>
       <c r="AK174">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:37">
@@ -20613,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="AK175">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:37">
@@ -20726,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="AK176">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:37">
@@ -20839,7 +20875,7 @@
         <v>0</v>
       </c>
       <c r="AK177">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:37">
@@ -20952,7 +20988,7 @@
         <v>0</v>
       </c>
       <c r="AK178">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:37">
@@ -21065,7 +21101,7 @@
         <v>0</v>
       </c>
       <c r="AK179">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:37">
@@ -21178,7 +21214,7 @@
         <v>0</v>
       </c>
       <c r="AK180">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:37">
@@ -21291,7 +21327,7 @@
         <v>0</v>
       </c>
       <c r="AK181">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:37">
@@ -21404,7 +21440,7 @@
         <v>0</v>
       </c>
       <c r="AK182">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:37">
@@ -21517,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="AK183">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:37">
@@ -21630,7 +21666,7 @@
         <v>0</v>
       </c>
       <c r="AK184">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:37">
@@ -21743,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="AK185">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:37">
@@ -21856,7 +21892,7 @@
         <v>0</v>
       </c>
       <c r="AK186">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:37">
@@ -21969,7 +22005,7 @@
         <v>0</v>
       </c>
       <c r="AK187">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:37">
@@ -22082,7 +22118,7 @@
         <v>0</v>
       </c>
       <c r="AK188">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:37">
@@ -22195,7 +22231,7 @@
         <v>0</v>
       </c>
       <c r="AK189">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:37">
@@ -22308,7 +22344,7 @@
         <v>0</v>
       </c>
       <c r="AK190">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:37">
@@ -22421,7 +22457,7 @@
         <v>0</v>
       </c>
       <c r="AK191">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:37">
@@ -22534,7 +22570,7 @@
         <v>0</v>
       </c>
       <c r="AK192">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:37">
@@ -22647,7 +22683,7 @@
         <v>0</v>
       </c>
       <c r="AK193">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:37">
@@ -22760,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="AK194">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:37">
@@ -22873,7 +22909,7 @@
         <v>0</v>
       </c>
       <c r="AK195">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:37">
@@ -22986,7 +23022,7 @@
         <v>0</v>
       </c>
       <c r="AK196">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:37">
@@ -23099,7 +23135,7 @@
         <v>0</v>
       </c>
       <c r="AK197">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:37">
@@ -23212,7 +23248,7 @@
         <v>0</v>
       </c>
       <c r="AK198">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:37">
@@ -23325,7 +23361,7 @@
         <v>0</v>
       </c>
       <c r="AK199">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:37">
@@ -23438,7 +23474,7 @@
         <v>0</v>
       </c>
       <c r="AK200">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:37">
@@ -23551,7 +23587,7 @@
         <v>0</v>
       </c>
       <c r="AK201">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:37">
@@ -23664,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="AK202">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:37">
@@ -23777,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="AK203">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:37">
@@ -23890,7 +23926,7 @@
         <v>0</v>
       </c>
       <c r="AK204">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:37">
@@ -24003,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="AK205">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:37">
@@ -24116,7 +24152,7 @@
         <v>0</v>
       </c>
       <c r="AK206">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:37">
@@ -24229,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="AK207">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:37">
@@ -24342,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="AK208">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:37">
@@ -24455,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="AK209">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:37">
@@ -24568,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="AK210">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:37">
@@ -24681,7 +24717,7 @@
         <v>0</v>
       </c>
       <c r="AK211">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:37">
@@ -24794,7 +24830,7 @@
         <v>0</v>
       </c>
       <c r="AK212">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:37">
@@ -24907,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="AK213">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:37">
@@ -25020,7 +25056,7 @@
         <v>0</v>
       </c>
       <c r="AK214">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:37">
@@ -25133,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="AK215">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:37">
@@ -25246,7 +25282,7 @@
         <v>0</v>
       </c>
       <c r="AK216">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:37">
@@ -25359,7 +25395,7 @@
         <v>0</v>
       </c>
       <c r="AK217">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:37">
@@ -25472,7 +25508,7 @@
         <v>0</v>
       </c>
       <c r="AK218">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:37">
@@ -25585,7 +25621,7 @@
         <v>0</v>
       </c>
       <c r="AK219">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:37">
@@ -25698,7 +25734,7 @@
         <v>0</v>
       </c>
       <c r="AK220">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:37">
@@ -25811,7 +25847,1363 @@
         <v>0</v>
       </c>
       <c r="AK221">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:37">
+      <c r="A222" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>1</v>
+      </c>
+      <c r="Y222">
+        <v>1</v>
+      </c>
+      <c r="Z222">
+        <v>1</v>
+      </c>
+      <c r="AA222">
+        <v>1</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0</v>
+      </c>
+      <c r="AK222">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:37">
+      <c r="A223" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>1</v>
+      </c>
+      <c r="Y223">
+        <v>1</v>
+      </c>
+      <c r="Z223">
+        <v>1</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>0</v>
+      </c>
+      <c r="AK223">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:37">
+      <c r="A224" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>1</v>
+      </c>
+      <c r="Y224">
+        <v>1</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
+      </c>
+      <c r="AA224">
+        <v>1</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>0</v>
+      </c>
+      <c r="AK224">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:37">
+      <c r="A225" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>1</v>
+      </c>
+      <c r="Y225">
+        <v>1</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
+      </c>
+      <c r="AA225">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>0</v>
+      </c>
+      <c r="AK225">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:37">
+      <c r="A226" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>1</v>
+      </c>
+      <c r="Y226">
+        <v>1</v>
+      </c>
+      <c r="Z226">
+        <v>1</v>
+      </c>
+      <c r="AA226">
+        <v>1</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
+      <c r="AH226">
+        <v>0</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>0</v>
+      </c>
+      <c r="AK226">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:37">
+      <c r="A227" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>1</v>
+      </c>
+      <c r="Y227">
+        <v>1</v>
+      </c>
+      <c r="Z227">
+        <v>1</v>
+      </c>
+      <c r="AA227">
+        <v>1</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>0</v>
+      </c>
+      <c r="AH227">
+        <v>0</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>0</v>
+      </c>
+      <c r="AK227">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:37">
+      <c r="A228" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>1</v>
+      </c>
+      <c r="Y228">
+        <v>1</v>
+      </c>
+      <c r="Z228">
+        <v>1</v>
+      </c>
+      <c r="AA228">
+        <v>1</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0</v>
+      </c>
+      <c r="AK228">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:37">
+      <c r="A229" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>1</v>
+      </c>
+      <c r="Y229">
+        <v>1</v>
+      </c>
+      <c r="Z229">
+        <v>1</v>
+      </c>
+      <c r="AA229">
+        <v>1</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>0</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:37">
+      <c r="A230" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>1</v>
+      </c>
+      <c r="Y230">
+        <v>1</v>
+      </c>
+      <c r="Z230">
+        <v>1</v>
+      </c>
+      <c r="AA230">
+        <v>1</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:37">
+      <c r="A231" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>1</v>
+      </c>
+      <c r="Y231">
+        <v>1</v>
+      </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
+      <c r="AA231">
+        <v>1</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:37">
+      <c r="A232" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>1</v>
+      </c>
+      <c r="Y232">
+        <v>1</v>
+      </c>
+      <c r="Z232">
+        <v>1</v>
+      </c>
+      <c r="AA232">
+        <v>1</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:37">
+      <c r="A233" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>1</v>
+      </c>
+      <c r="Y233">
+        <v>1</v>
+      </c>
+      <c r="Z233">
+        <v>1</v>
+      </c>
+      <c r="AA233">
+        <v>1</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
